--- a/data/pca/factorExposure/factorExposure_2018-01-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.00932895826630971</v>
+        <v>0.008229184495847162</v>
       </c>
       <c r="C2">
-        <v>-0.003689713222850357</v>
+        <v>-0.03157588216736126</v>
       </c>
       <c r="D2">
-        <v>-0.02148309912373631</v>
+        <v>-0.02805019797457206</v>
       </c>
       <c r="E2">
-        <v>0.06205206847812153</v>
+        <v>-0.02571482159940277</v>
       </c>
       <c r="F2">
-        <v>0.009225746041016241</v>
+        <v>-0.03413378764985006</v>
       </c>
       <c r="G2">
-        <v>-0.01055056135357371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01077843312885228</v>
+      </c>
+      <c r="H2">
+        <v>-0.006808555056748435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0598058133682771</v>
+        <v>0.05928136606673875</v>
       </c>
       <c r="C3">
-        <v>0.002031245928060786</v>
+        <v>-0.08250878214559652</v>
       </c>
       <c r="D3">
-        <v>0.03416670179130354</v>
+        <v>-0.01301951961592801</v>
       </c>
       <c r="E3">
-        <v>0.2430583460816612</v>
+        <v>-0.07311939950839728</v>
       </c>
       <c r="F3">
-        <v>0.1138291908270519</v>
+        <v>-0.08323905035163146</v>
       </c>
       <c r="G3">
-        <v>-0.1016965083413778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.06479079389214683</v>
+      </c>
+      <c r="H3">
+        <v>-0.002667596587163662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03628757206170427</v>
+        <v>0.0506509661966203</v>
       </c>
       <c r="C4">
-        <v>0.01535713061062353</v>
+        <v>-0.05873093479768215</v>
       </c>
       <c r="D4">
-        <v>-0.03288734032154442</v>
+        <v>-0.02114022944607192</v>
       </c>
       <c r="E4">
-        <v>0.03375711664698604</v>
+        <v>0.001734560444536787</v>
       </c>
       <c r="F4">
-        <v>0.05345045827059477</v>
+        <v>-0.01937811819293093</v>
       </c>
       <c r="G4">
-        <v>0.01355662906198626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03741376656137269</v>
+      </c>
+      <c r="H4">
+        <v>0.0296235700116147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0633013848541556</v>
+        <v>0.02885098323186393</v>
       </c>
       <c r="C6">
-        <v>0.004665466044005461</v>
+        <v>-0.05841524996103173</v>
       </c>
       <c r="D6">
-        <v>-0.04546609293768478</v>
+        <v>-0.01593615975323021</v>
       </c>
       <c r="E6">
-        <v>0.02541056564853565</v>
+        <v>-0.002067448153001007</v>
       </c>
       <c r="F6">
-        <v>0.03051184011861743</v>
+        <v>-0.01844795572293932</v>
       </c>
       <c r="G6">
-        <v>0.04067721510345301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01927137406697821</v>
+      </c>
+      <c r="H6">
+        <v>0.005612841255057679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02653076257651799</v>
+        <v>0.01391175067697475</v>
       </c>
       <c r="C7">
-        <v>0.06945373788410876</v>
+        <v>-0.03752032861708614</v>
       </c>
       <c r="D7">
-        <v>-0.0002725185450386393</v>
+        <v>-0.01249838204391367</v>
       </c>
       <c r="E7">
-        <v>0.009528245286366772</v>
+        <v>0.01763867049213122</v>
       </c>
       <c r="F7">
-        <v>0.01148301915946147</v>
+        <v>-0.01052835528020964</v>
       </c>
       <c r="G7">
-        <v>-0.01772241733717605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0737876378934645</v>
+      </c>
+      <c r="H7">
+        <v>-0.005449311703203964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0167441265925684</v>
+        <v>-0.008387483925051986</v>
       </c>
       <c r="C8">
-        <v>0.008969194218454466</v>
+        <v>-0.01026123624807621</v>
       </c>
       <c r="D8">
-        <v>-0.0249379434357913</v>
+        <v>-0.003548419947293132</v>
       </c>
       <c r="E8">
-        <v>0.03101745667737217</v>
+        <v>-0.01081420458754399</v>
       </c>
       <c r="F8">
-        <v>0.03573896920891804</v>
+        <v>-0.02590963178460348</v>
       </c>
       <c r="G8">
-        <v>-0.02540000150188288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0262221467414654</v>
+      </c>
+      <c r="H8">
+        <v>0.02330831479731009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02917316253817047</v>
+        <v>0.02689711253388755</v>
       </c>
       <c r="C9">
-        <v>0.011334281808966</v>
+        <v>-0.04043401077464139</v>
       </c>
       <c r="D9">
-        <v>-0.02602006217583479</v>
+        <v>-0.01454479297050928</v>
       </c>
       <c r="E9">
-        <v>0.05109482275881042</v>
+        <v>0.001101007779803355</v>
       </c>
       <c r="F9">
-        <v>0.02649196382505611</v>
+        <v>-0.01993786464743552</v>
       </c>
       <c r="G9">
-        <v>0.01906718236810242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0270504980427378</v>
+      </c>
+      <c r="H9">
+        <v>-0.003481202573297907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05449270357452382</v>
+        <v>0.09645669644662783</v>
       </c>
       <c r="C10">
-        <v>-0.01461486505065853</v>
+        <v>0.1772681811548662</v>
       </c>
       <c r="D10">
-        <v>0.1692340571787126</v>
+        <v>0.02126784484920219</v>
       </c>
       <c r="E10">
-        <v>0.03008279686630996</v>
+        <v>-0.017775195178229</v>
       </c>
       <c r="F10">
-        <v>-0.003328274920429446</v>
+        <v>0.01084271638696179</v>
       </c>
       <c r="G10">
-        <v>0.00140376786269451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03273258189423448</v>
+      </c>
+      <c r="H10">
+        <v>-0.02279662560402757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02853212157150572</v>
+        <v>0.03325033949618118</v>
       </c>
       <c r="C11">
-        <v>-0.002866942346708426</v>
+        <v>-0.05474994514446895</v>
       </c>
       <c r="D11">
-        <v>-0.04365174154827998</v>
+        <v>-0.000468714928919148</v>
       </c>
       <c r="E11">
-        <v>0.01191756857060374</v>
+        <v>0.007932560400452079</v>
       </c>
       <c r="F11">
-        <v>0.01393070730123621</v>
+        <v>-0.02712167839654956</v>
       </c>
       <c r="G11">
-        <v>0.01882537719936276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007492618818675572</v>
+      </c>
+      <c r="H11">
+        <v>0.002304329367191348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03553841126485254</v>
+        <v>0.03233614245956214</v>
       </c>
       <c r="C12">
-        <v>0.005011192494837034</v>
+        <v>-0.04822209415974591</v>
       </c>
       <c r="D12">
-        <v>-0.04200741736730194</v>
+        <v>-0.004911272311995161</v>
       </c>
       <c r="E12">
-        <v>-0.01213788777176681</v>
+        <v>0.01360074274985487</v>
       </c>
       <c r="F12">
-        <v>-0.001298132687533533</v>
+        <v>-0.007557760427158974</v>
       </c>
       <c r="G12">
-        <v>0.002259204069596512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01377740177824036</v>
+      </c>
+      <c r="H12">
+        <v>0.001167090145077536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01801807194862818</v>
+        <v>0.01034202321546419</v>
       </c>
       <c r="C13">
-        <v>-0.001281920541295571</v>
+        <v>-0.02906273974467784</v>
       </c>
       <c r="D13">
-        <v>-0.01818391735806483</v>
+        <v>-0.02373356719668152</v>
       </c>
       <c r="E13">
-        <v>0.04172129380904353</v>
+        <v>-0.01666526395727893</v>
       </c>
       <c r="F13">
-        <v>0.03723427396361007</v>
+        <v>-0.03424326973257376</v>
       </c>
       <c r="G13">
-        <v>0.008390400853700866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02305358285093858</v>
+      </c>
+      <c r="H13">
+        <v>0.012838122046269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01426191200315055</v>
+        <v>0.006587354993379471</v>
       </c>
       <c r="C14">
-        <v>0.01438542192512341</v>
+        <v>-0.02679925134257967</v>
       </c>
       <c r="D14">
-        <v>-0.009713264213703537</v>
+        <v>-0.008263619835222672</v>
       </c>
       <c r="E14">
-        <v>0.01994836971785682</v>
+        <v>0.007304296326246096</v>
       </c>
       <c r="F14">
-        <v>0.03473185679291884</v>
+        <v>-0.003336975344309386</v>
       </c>
       <c r="G14">
-        <v>-0.02995404547238831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0331595425893554</v>
+      </c>
+      <c r="H14">
+        <v>0.0178124699784386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02674964483511893</v>
+        <v>0.02899305977379072</v>
       </c>
       <c r="C16">
-        <v>0.003092268675803776</v>
+        <v>-0.04247001900115757</v>
       </c>
       <c r="D16">
-        <v>-0.04336448367152619</v>
+        <v>-0.0001578938507033698</v>
       </c>
       <c r="E16">
-        <v>0.01343529924689626</v>
+        <v>0.005075157641257847</v>
       </c>
       <c r="F16">
-        <v>0.01918132478746236</v>
+        <v>-0.01514457385720677</v>
       </c>
       <c r="G16">
-        <v>0.02356132510167841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01284947864856589</v>
+      </c>
+      <c r="H16">
+        <v>0.004876795723614413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02874389269863036</v>
+        <v>0.02523343455430995</v>
       </c>
       <c r="C19">
-        <v>0.0001789804076775672</v>
+        <v>-0.05430114752224383</v>
       </c>
       <c r="D19">
-        <v>-0.03443344657200281</v>
+        <v>-0.01431435302448235</v>
       </c>
       <c r="E19">
-        <v>0.05409904307746527</v>
+        <v>-0.03031040443748697</v>
       </c>
       <c r="F19">
-        <v>0.07715625365734827</v>
+        <v>-0.04483251805436721</v>
       </c>
       <c r="G19">
-        <v>0.01763438251457659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.03500449778475181</v>
+      </c>
+      <c r="H19">
+        <v>0.03341742369148003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002065385876574883</v>
+        <v>0.007452800020472427</v>
       </c>
       <c r="C20">
-        <v>0.003148675441131003</v>
+        <v>-0.03118589198772239</v>
       </c>
       <c r="D20">
-        <v>-0.001511585557299308</v>
+        <v>-0.01247896912099</v>
       </c>
       <c r="E20">
-        <v>0.02971219172573965</v>
+        <v>-0.01653404655793497</v>
       </c>
       <c r="F20">
-        <v>0.01888300639231532</v>
+        <v>-0.01310325813372093</v>
       </c>
       <c r="G20">
-        <v>-0.01495716128064114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.02262727003427843</v>
+      </c>
+      <c r="H20">
+        <v>0.0119031585759762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03726615941768294</v>
+        <v>0.01008757006176169</v>
       </c>
       <c r="C21">
-        <v>0.02186559788775956</v>
+        <v>-0.03427115075312522</v>
       </c>
       <c r="D21">
-        <v>-0.01458065714412581</v>
+        <v>-0.01547279371459668</v>
       </c>
       <c r="E21">
-        <v>0.02608695589576927</v>
+        <v>-0.02147599975000676</v>
       </c>
       <c r="F21">
-        <v>0.03380747076313594</v>
+        <v>-0.02391585221639283</v>
       </c>
       <c r="G21">
-        <v>0.0119363409902764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04634332782112528</v>
+      </c>
+      <c r="H21">
+        <v>0.01184249417994587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,79 +1298,91 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02518288830287652</v>
+        <v>0.0239984467490158</v>
       </c>
       <c r="C24">
-        <v>0.001182191742927043</v>
+        <v>-0.04551176691682835</v>
       </c>
       <c r="D24">
-        <v>-0.035999012436349</v>
+        <v>-0.005409101107044711</v>
       </c>
       <c r="E24">
-        <v>0.01033012203405245</v>
+        <v>0.01031212068909452</v>
       </c>
       <c r="F24">
-        <v>0.01208522209111396</v>
+        <v>-0.02242448826999381</v>
       </c>
       <c r="G24">
-        <v>0.01890333468964862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009950893939676833</v>
+      </c>
+      <c r="H24">
+        <v>-0.003585038774619944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03920693226527327</v>
+        <v>0.0406662690791233</v>
       </c>
       <c r="C25">
-        <v>-0.0009687284467495706</v>
+        <v>-0.05465305515343945</v>
       </c>
       <c r="D25">
-        <v>-0.03362071063962756</v>
+        <v>-0.009345065636061217</v>
       </c>
       <c r="E25">
-        <v>0.02606106940194707</v>
+        <v>0.01702480549735695</v>
       </c>
       <c r="F25">
-        <v>0.02348185702690691</v>
+        <v>-0.01916213273424242</v>
       </c>
       <c r="G25">
-        <v>0.02386668009840825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01702974527136097</v>
+      </c>
+      <c r="H25">
+        <v>0.008106082420060437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003027754242267167</v>
+        <v>0.001533577741881856</v>
       </c>
       <c r="C26">
-        <v>0.01027254898979086</v>
+        <v>-0.005609061158866004</v>
       </c>
       <c r="D26">
-        <v>-0.006326593442476458</v>
+        <v>-0.02347722933173176</v>
       </c>
       <c r="E26">
-        <v>0.0298805148883241</v>
+        <v>-0.003056795700512949</v>
       </c>
       <c r="F26">
-        <v>0.004381509873820691</v>
+        <v>-0.009144904295260674</v>
       </c>
       <c r="G26">
-        <v>-0.02373589903766159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0213230394135106</v>
+      </c>
+      <c r="H26">
+        <v>0.009975608312004246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,171 +1402,195 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08962834527703692</v>
+        <v>0.1258197537686832</v>
       </c>
       <c r="C28">
-        <v>-0.02218406650581814</v>
+        <v>0.2165710331993764</v>
       </c>
       <c r="D28">
-        <v>0.2446300909144253</v>
+        <v>0.01335512501223761</v>
       </c>
       <c r="E28">
-        <v>0.02591808035423884</v>
+        <v>-0.0102076797569451</v>
       </c>
       <c r="F28">
-        <v>-0.002736601418285247</v>
+        <v>0.00976799902550576</v>
       </c>
       <c r="G28">
-        <v>-0.004285122071357435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0477981833317441</v>
+      </c>
+      <c r="H28">
+        <v>-0.01350324917383022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01503137546438941</v>
+        <v>0.01129364407439589</v>
       </c>
       <c r="C29">
-        <v>0.01041877519806442</v>
+        <v>-0.02221397199613281</v>
       </c>
       <c r="D29">
-        <v>-0.01140695552028488</v>
+        <v>-0.007053771747080157</v>
       </c>
       <c r="E29">
-        <v>0.02009325945038509</v>
+        <v>0.005974206631580894</v>
       </c>
       <c r="F29">
-        <v>0.03712099162250617</v>
+        <v>0.002972822076779965</v>
       </c>
       <c r="G29">
-        <v>-0.02936153543499786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02681814661591374</v>
+      </c>
+      <c r="H29">
+        <v>0.0221494092185849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04704940144906823</v>
+        <v>0.03452142446614029</v>
       </c>
       <c r="C30">
-        <v>-0.05073730610795757</v>
+        <v>-0.07350193074299428</v>
       </c>
       <c r="D30">
-        <v>-0.0685835294612309</v>
+        <v>-0.02661225994496303</v>
       </c>
       <c r="E30">
-        <v>0.06422477330227341</v>
+        <v>-0.01771875941139124</v>
       </c>
       <c r="F30">
-        <v>0.0444607240682774</v>
+        <v>-0.04781932653400365</v>
       </c>
       <c r="G30">
-        <v>-0.001459625925722537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01240674147311969</v>
+      </c>
+      <c r="H30">
+        <v>0.01944199936609159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04775850788491988</v>
+        <v>0.04150336300776818</v>
       </c>
       <c r="C31">
-        <v>0.01244640329635899</v>
+        <v>-0.02635741353057435</v>
       </c>
       <c r="D31">
-        <v>-0.01711209466113041</v>
+        <v>-0.001644016980527952</v>
       </c>
       <c r="E31">
-        <v>-0.001509625367605035</v>
+        <v>0.01709157432727972</v>
       </c>
       <c r="F31">
-        <v>0.02425052935718379</v>
+        <v>0.02650785203480172</v>
       </c>
       <c r="G31">
-        <v>-0.02201308148770911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02418043659160442</v>
+      </c>
+      <c r="H31">
+        <v>0.007098494552363719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-7.051627172702589e-06</v>
+        <v>0.00261091823467508</v>
       </c>
       <c r="C32">
-        <v>0.02858484782923336</v>
+        <v>-0.03360690872501094</v>
       </c>
       <c r="D32">
-        <v>-0.02797865439008019</v>
+        <v>0.005167702205362205</v>
       </c>
       <c r="E32">
-        <v>0.01766805605530049</v>
+        <v>-0.01336014387958571</v>
       </c>
       <c r="F32">
-        <v>0.07344840334670708</v>
+        <v>-0.07817076783535593</v>
       </c>
       <c r="G32">
-        <v>-0.007801087129847788</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05172428436577307</v>
+      </c>
+      <c r="H32">
+        <v>0.05503430966566962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03178351714341884</v>
+        <v>0.0272818994804112</v>
       </c>
       <c r="C33">
-        <v>-0.02053768398127441</v>
+        <v>-0.0506812368476991</v>
       </c>
       <c r="D33">
-        <v>-0.03385935149573139</v>
+        <v>-0.01309985971327808</v>
       </c>
       <c r="E33">
-        <v>0.04401795820358143</v>
+        <v>-0.01343304264357167</v>
       </c>
       <c r="F33">
-        <v>0.007090872458682007</v>
+        <v>-0.02575719496833512</v>
       </c>
       <c r="G33">
-        <v>-0.02021713743172645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01224349402250679</v>
+      </c>
+      <c r="H33">
+        <v>-0.0095375158139694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02821476330830461</v>
+        <v>0.04232160826162802</v>
       </c>
       <c r="C34">
-        <v>0.01156908485977744</v>
+        <v>-0.05571883087899297</v>
       </c>
       <c r="D34">
-        <v>-0.04556672618281869</v>
+        <v>0.006798570935072953</v>
       </c>
       <c r="E34">
-        <v>0.01126946674441461</v>
+        <v>0.01765685019950916</v>
       </c>
       <c r="F34">
-        <v>0.02271159181800169</v>
+        <v>-0.02404641548337765</v>
       </c>
       <c r="G34">
-        <v>0.01964497763971029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02154628145424143</v>
+      </c>
+      <c r="H34">
+        <v>0.003143694918857208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0122355485575511</v>
+        <v>0.01018122936784147</v>
       </c>
       <c r="C36">
-        <v>0.005078616139239813</v>
+        <v>-0.003275257957774158</v>
       </c>
       <c r="D36">
-        <v>-0.002471795660082668</v>
+        <v>-0.01037508901343598</v>
       </c>
       <c r="E36">
-        <v>0.01594061971300576</v>
+        <v>0.001980531970822178</v>
       </c>
       <c r="F36">
-        <v>0.01611997820792672</v>
+        <v>-0.00103400543428556</v>
       </c>
       <c r="G36">
-        <v>-0.005611365954687191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01406071968138926</v>
+      </c>
+      <c r="H36">
+        <v>0.00150477795260581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02120059467421848</v>
+        <v>0.02717518877268951</v>
       </c>
       <c r="C38">
-        <v>-0.003057101255509128</v>
+        <v>-0.02002669849849033</v>
       </c>
       <c r="D38">
-        <v>-0.009431717680242332</v>
+        <v>0.008279653512202723</v>
       </c>
       <c r="E38">
-        <v>0.04396830940303226</v>
+        <v>0.002283808713973307</v>
       </c>
       <c r="F38">
-        <v>0.01292640029425781</v>
+        <v>-0.009640879423903577</v>
       </c>
       <c r="G38">
-        <v>-0.005254858141626227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0189359807677371</v>
+      </c>
+      <c r="H38">
+        <v>0.002670140190124401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02222681097432457</v>
+        <v>0.02451923319386424</v>
       </c>
       <c r="C39">
-        <v>0.008305522544042277</v>
+        <v>-0.08318050673492272</v>
       </c>
       <c r="D39">
-        <v>-0.071088655170102</v>
+        <v>-0.01128609513447357</v>
       </c>
       <c r="E39">
-        <v>0.0430084764709935</v>
+        <v>-0.004441346039568955</v>
       </c>
       <c r="F39">
-        <v>0.03567178126493244</v>
+        <v>-0.04378074931380461</v>
       </c>
       <c r="G39">
-        <v>0.03089730413114296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01236833665404626</v>
+      </c>
+      <c r="H39">
+        <v>-0.008801312901524045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0283987099608198</v>
+        <v>0.01730841342704077</v>
       </c>
       <c r="C40">
-        <v>-0.00154654458311326</v>
+        <v>-0.03064757175257432</v>
       </c>
       <c r="D40">
-        <v>-0.04618078660992704</v>
+        <v>-0.01257190936404268</v>
       </c>
       <c r="E40">
-        <v>0.03074936680892916</v>
+        <v>-0.008412649115167781</v>
       </c>
       <c r="F40">
-        <v>0.001027035064777467</v>
+        <v>-0.02719113285223771</v>
       </c>
       <c r="G40">
-        <v>0.03776967410214659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01173848282511243</v>
+      </c>
+      <c r="H40">
+        <v>-0.004396978627472316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01033136820805055</v>
+        <v>0.01162213829026073</v>
       </c>
       <c r="C41">
-        <v>-0.0006770632385528178</v>
+        <v>0.00539271039301299</v>
       </c>
       <c r="D41">
-        <v>0.01164631690154035</v>
+        <v>-0.002537474421906592</v>
       </c>
       <c r="E41">
-        <v>0.005591727707163954</v>
+        <v>0.008418322279919432</v>
       </c>
       <c r="F41">
-        <v>0.006759654400026754</v>
+        <v>-0.000594227204069965</v>
       </c>
       <c r="G41">
-        <v>-0.006379136321909387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00856532618427412</v>
+      </c>
+      <c r="H41">
+        <v>0.003031828226566468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1911235208457615</v>
+        <v>0.04631888579037358</v>
       </c>
       <c r="C42">
-        <v>-0.1209822037565731</v>
+        <v>-0.06756242588668875</v>
       </c>
       <c r="D42">
-        <v>-0.08627710136527632</v>
+        <v>-0.1078877070534206</v>
       </c>
       <c r="E42">
-        <v>0.1751395136138139</v>
+        <v>-0.08195228623389532</v>
       </c>
       <c r="F42">
-        <v>-0.9082355090665737</v>
+        <v>0.1646693312841974</v>
       </c>
       <c r="G42">
-        <v>0.08315766201268622</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2861817927234594</v>
+      </c>
+      <c r="H42">
+        <v>-0.9027373195118087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01525544353399902</v>
+        <v>0.02652470877389838</v>
       </c>
       <c r="C43">
-        <v>-0.003823565341190559</v>
+        <v>-0.005210531059251767</v>
       </c>
       <c r="D43">
-        <v>0.008971817857547087</v>
+        <v>-0.002386885556211042</v>
       </c>
       <c r="E43">
-        <v>0.01192672234406951</v>
+        <v>0.005845614301736834</v>
       </c>
       <c r="F43">
-        <v>0.006484645190867078</v>
+        <v>-0.004820990526102468</v>
       </c>
       <c r="G43">
-        <v>-0.01080966445850187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01042250805975229</v>
+      </c>
+      <c r="H43">
+        <v>0.003782542383127508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.008005304633832158</v>
+        <v>0.0128841312482764</v>
       </c>
       <c r="C44">
-        <v>0.009822576602538397</v>
+        <v>-0.04860050508013346</v>
       </c>
       <c r="D44">
-        <v>-0.01834876470171115</v>
+        <v>-0.006393746955978013</v>
       </c>
       <c r="E44">
-        <v>0.07167244167800314</v>
+        <v>-0.01404791629934829</v>
       </c>
       <c r="F44">
-        <v>0.03555130752629311</v>
+        <v>-0.02754844524293762</v>
       </c>
       <c r="G44">
-        <v>-0.006340261538217743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02895651394240139</v>
+      </c>
+      <c r="H44">
+        <v>-0.0120768537357392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01077141879682931</v>
+        <v>0.0004288189108850521</v>
       </c>
       <c r="C46">
-        <v>0.002881787254623719</v>
+        <v>-0.01588962273389749</v>
       </c>
       <c r="D46">
-        <v>-0.03346358954297171</v>
+        <v>-0.01117710677658321</v>
       </c>
       <c r="E46">
-        <v>0.03935391928545776</v>
+        <v>0.007578391057398493</v>
       </c>
       <c r="F46">
-        <v>0.05389191617203054</v>
+        <v>0.005623393953357302</v>
       </c>
       <c r="G46">
-        <v>-0.03398322480161014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01839709835727579</v>
+      </c>
+      <c r="H46">
+        <v>0.02339492949172641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07402887011533855</v>
+        <v>0.06704091830214708</v>
       </c>
       <c r="C47">
-        <v>-0.003141076079744392</v>
+        <v>-0.06138700929740636</v>
       </c>
       <c r="D47">
-        <v>-0.0234243980241328</v>
+        <v>0.005670383099173571</v>
       </c>
       <c r="E47">
-        <v>-0.03490195558411287</v>
+        <v>0.01890960833138237</v>
       </c>
       <c r="F47">
-        <v>-0.00503012190464423</v>
+        <v>0.05803070912081912</v>
       </c>
       <c r="G47">
-        <v>-0.04133967040981651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01481246166878505</v>
+      </c>
+      <c r="H47">
+        <v>0.009493345997425639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02227413510591403</v>
+        <v>0.01427368765112254</v>
       </c>
       <c r="C48">
-        <v>0.004467906548381974</v>
+        <v>-0.0100978963162454</v>
       </c>
       <c r="D48">
-        <v>-0.008732308711525829</v>
+        <v>-0.000438604613496779</v>
       </c>
       <c r="E48">
-        <v>0.01613117885458334</v>
+        <v>0.008090412848048598</v>
       </c>
       <c r="F48">
-        <v>0.01539492802652582</v>
+        <v>0.01304915298695153</v>
       </c>
       <c r="G48">
-        <v>-0.003550934996915595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01678857042992111</v>
+      </c>
+      <c r="H48">
+        <v>0.005268540569579473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07854268552980852</v>
+        <v>0.07261583163570692</v>
       </c>
       <c r="C50">
-        <v>0.02669414196599833</v>
+        <v>-0.06483695637651969</v>
       </c>
       <c r="D50">
-        <v>-0.04196669406608122</v>
+        <v>0.004745197297803983</v>
       </c>
       <c r="E50">
-        <v>-0.006407390245758066</v>
+        <v>0.01949835354103291</v>
       </c>
       <c r="F50">
-        <v>-0.00497655773026703</v>
+        <v>0.05607017027947534</v>
       </c>
       <c r="G50">
-        <v>-0.06545250049282356</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03976803621874134</v>
+      </c>
+      <c r="H50">
+        <v>0.008048071941825018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01074500214271753</v>
+        <v>0.01408935716506697</v>
       </c>
       <c r="C51">
-        <v>0.007211756416444046</v>
+        <v>-0.02830997478309175</v>
       </c>
       <c r="D51">
-        <v>0.01755354479010072</v>
+        <v>-0.008223790172550465</v>
       </c>
       <c r="E51">
-        <v>0.06119306477188657</v>
+        <v>-0.00232481609490266</v>
       </c>
       <c r="F51">
-        <v>0.05205757068584689</v>
+        <v>-0.03803770470112863</v>
       </c>
       <c r="G51">
-        <v>-0.003719454159036072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03649012396916767</v>
+      </c>
+      <c r="H51">
+        <v>0.003295728848138993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1029919043516672</v>
+        <v>0.09352485446384257</v>
       </c>
       <c r="C53">
-        <v>0.01025286243380574</v>
+        <v>-0.08090118713581734</v>
       </c>
       <c r="D53">
-        <v>-0.05397402067483479</v>
+        <v>0.006795058283439584</v>
       </c>
       <c r="E53">
-        <v>-0.05732673349844233</v>
+        <v>0.0430953231445295</v>
       </c>
       <c r="F53">
-        <v>-0.002051320116333486</v>
+        <v>0.06784001161372279</v>
       </c>
       <c r="G53">
-        <v>-0.02780480859754815</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01594721304941654</v>
+      </c>
+      <c r="H53">
+        <v>-0.004012702520275566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02612606035323271</v>
+        <v>0.02782711317326858</v>
       </c>
       <c r="C54">
-        <v>0.007880341523365622</v>
+        <v>-0.004543991090499986</v>
       </c>
       <c r="D54">
-        <v>-0.002892915318536663</v>
+        <v>0.00506556440042352</v>
       </c>
       <c r="E54">
-        <v>0.003702536086834779</v>
+        <v>0.001742621262544231</v>
       </c>
       <c r="F54">
-        <v>0.0339982968802983</v>
+        <v>0.001663636020794767</v>
       </c>
       <c r="G54">
-        <v>-0.01343726681996424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02498885504627624</v>
+      </c>
+      <c r="H54">
+        <v>0.0172012907649064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07661248466184116</v>
+        <v>0.06836715451628449</v>
       </c>
       <c r="C55">
-        <v>0.003773529418754279</v>
+        <v>-0.07201851638219589</v>
       </c>
       <c r="D55">
-        <v>-0.06633056086798846</v>
+        <v>0.005568915133393136</v>
       </c>
       <c r="E55">
-        <v>-0.03611710734901075</v>
+        <v>0.03197259605079877</v>
       </c>
       <c r="F55">
-        <v>-0.01256233209541167</v>
+        <v>0.06191421664170051</v>
       </c>
       <c r="G55">
-        <v>-0.04700661699038742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005910204759920545</v>
+      </c>
+      <c r="H55">
+        <v>0.005848830966994038</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1434892906862148</v>
+        <v>0.1395764861098196</v>
       </c>
       <c r="C56">
-        <v>0.00318534062211934</v>
+        <v>-0.106182513414141</v>
       </c>
       <c r="D56">
-        <v>-0.07383168813902774</v>
+        <v>0.01561534791425665</v>
       </c>
       <c r="E56">
-        <v>-0.0906387731243111</v>
+        <v>0.04507011668078889</v>
       </c>
       <c r="F56">
-        <v>-0.01367383125224747</v>
+        <v>0.1058837760982825</v>
       </c>
       <c r="G56">
-        <v>-0.01902092284592518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.004956546582591471</v>
+      </c>
+      <c r="H56">
+        <v>0.004505448957436552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03907590695532467</v>
+        <v>0.01578879752179034</v>
       </c>
       <c r="C57">
-        <v>-0.007748620503489838</v>
+        <v>-0.01298382325639599</v>
       </c>
       <c r="D57">
-        <v>-0.01548162899984664</v>
+        <v>-0.02339556506986312</v>
       </c>
       <c r="E57">
-        <v>0.04005242936904242</v>
+        <v>-0.03157441074249517</v>
       </c>
       <c r="F57">
-        <v>-0.002341933558923059</v>
+        <v>-0.01734535180075098</v>
       </c>
       <c r="G57">
-        <v>0.01072862008853261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02248546077804815</v>
+      </c>
+      <c r="H57">
+        <v>-0.002516661265817318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1777457826866133</v>
+        <v>0.06798084056473162</v>
       </c>
       <c r="C58">
-        <v>-0.1362100997846961</v>
+        <v>-0.09175182412998131</v>
       </c>
       <c r="D58">
-        <v>-0.1471345416388207</v>
+        <v>-0.02027690862849209</v>
       </c>
       <c r="E58">
-        <v>0.6100509521451142</v>
+        <v>-0.9478052934773985</v>
       </c>
       <c r="F58">
-        <v>0.04704698764807658</v>
+        <v>0.2099760798292504</v>
       </c>
       <c r="G58">
-        <v>-0.5689921201047627</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.07080411493354567</v>
+      </c>
+      <c r="H58">
+        <v>0.103669342358643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.09008765384359317</v>
+        <v>0.1605503495168461</v>
       </c>
       <c r="C59">
-        <v>-0.04233630329478731</v>
+        <v>0.2042942670272832</v>
       </c>
       <c r="D59">
-        <v>0.1981957033712478</v>
+        <v>0.02034252831179158</v>
       </c>
       <c r="E59">
-        <v>0.05684998380101616</v>
+        <v>-0.01661748980650237</v>
       </c>
       <c r="F59">
-        <v>0.03714212923044263</v>
+        <v>-0.01562825690215702</v>
       </c>
       <c r="G59">
-        <v>0.05729554858063429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02156744460463739</v>
+      </c>
+      <c r="H59">
+        <v>0.006969240876133732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2087083577274031</v>
+        <v>0.2873470175855958</v>
       </c>
       <c r="C60">
-        <v>-0.05238006708260521</v>
+        <v>-0.09694078796039562</v>
       </c>
       <c r="D60">
-        <v>0.01620219691653208</v>
+        <v>-0.003410594453674403</v>
       </c>
       <c r="E60">
-        <v>0.164345186949648</v>
+        <v>-0.01656315574957808</v>
       </c>
       <c r="F60">
-        <v>0.1316510545920879</v>
+        <v>-0.3898079003887071</v>
       </c>
       <c r="G60">
-        <v>0.3797765731598448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04449554014816356</v>
+      </c>
+      <c r="H60">
+        <v>0.03110372628434298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03343001833169659</v>
+        <v>0.02762701615979845</v>
       </c>
       <c r="C61">
-        <v>0.00266813583284262</v>
+        <v>-0.06512799287654455</v>
       </c>
       <c r="D61">
-        <v>-0.05736286769351016</v>
+        <v>-0.004468123730518666</v>
       </c>
       <c r="E61">
-        <v>0.02697759658524464</v>
+        <v>0.0007199426500682485</v>
       </c>
       <c r="F61">
-        <v>0.02776590677369664</v>
+        <v>-0.02949769480471575</v>
       </c>
       <c r="G61">
-        <v>0.04668853297638829</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01531557157561904</v>
+      </c>
+      <c r="H61">
+        <v>0.004701758568275254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01568884266602821</v>
+        <v>0.0135972003497564</v>
       </c>
       <c r="C63">
-        <v>0.006999001426490208</v>
+        <v>-0.03154825927350263</v>
       </c>
       <c r="D63">
-        <v>-0.02288296397264169</v>
+        <v>-0.007301423823559929</v>
       </c>
       <c r="E63">
-        <v>0.001993655319958532</v>
+        <v>0.01617729716985162</v>
       </c>
       <c r="F63">
-        <v>0.006905423855265682</v>
+        <v>0.003827979714139571</v>
       </c>
       <c r="G63">
-        <v>-0.02867524878704749</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02104205319293331</v>
+      </c>
+      <c r="H63">
+        <v>0.01161272008995239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04971525531345208</v>
+        <v>0.04580966406267156</v>
       </c>
       <c r="C64">
-        <v>0.001219405330116157</v>
+        <v>-0.03548240745937298</v>
       </c>
       <c r="D64">
-        <v>-0.03419585537283172</v>
+        <v>-0.003222151284656102</v>
       </c>
       <c r="E64">
-        <v>0.0123754746881192</v>
+        <v>0.01826145836463231</v>
       </c>
       <c r="F64">
-        <v>0.01725920011848653</v>
+        <v>-0.01566790196417777</v>
       </c>
       <c r="G64">
-        <v>0.01141909060772619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.008995363398568126</v>
+      </c>
+      <c r="H64">
+        <v>-0.02515233087145834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.07032291767265811</v>
+        <v>0.07414266149165449</v>
       </c>
       <c r="C65">
-        <v>0.004773527311570035</v>
+        <v>-0.07676162470314864</v>
       </c>
       <c r="D65">
-        <v>-0.04794943032297814</v>
+        <v>-0.01473489052521001</v>
       </c>
       <c r="E65">
-        <v>0.02062750125532702</v>
+        <v>0.002965735403675214</v>
       </c>
       <c r="F65">
-        <v>0.03092388959340997</v>
+        <v>-0.04431246094942858</v>
       </c>
       <c r="G65">
-        <v>0.04758768864505888</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01000118557445176</v>
+      </c>
+      <c r="H65">
+        <v>0.01330979974411474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04574411938084197</v>
+        <v>0.04480287394191573</v>
       </c>
       <c r="C66">
-        <v>-0.01048175930566185</v>
+        <v>-0.1215583707800686</v>
       </c>
       <c r="D66">
-        <v>-0.08355839733218479</v>
+        <v>-0.01045306314213353</v>
       </c>
       <c r="E66">
-        <v>0.02361050023884375</v>
+        <v>-0.005021177763223266</v>
       </c>
       <c r="F66">
-        <v>0.06561117284624414</v>
+        <v>-0.05212012904777065</v>
       </c>
       <c r="G66">
-        <v>0.03412220178438322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.004005182608121389</v>
+      </c>
+      <c r="H66">
+        <v>0.01671869649742044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03915811834003725</v>
+        <v>0.05373899316950729</v>
       </c>
       <c r="C67">
-        <v>-0.007024825772755593</v>
+        <v>-0.02360481168922052</v>
       </c>
       <c r="D67">
-        <v>-0.005226997022523528</v>
+        <v>0.007548531870278615</v>
       </c>
       <c r="E67">
-        <v>0.02288468309302978</v>
+        <v>0.0082156570400925</v>
       </c>
       <c r="F67">
-        <v>0.01685705608861107</v>
+        <v>-0.006935927153858061</v>
       </c>
       <c r="G67">
-        <v>0.003361708949173412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01841272885526011</v>
+      </c>
+      <c r="H67">
+        <v>0.007066402008713335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0806107243515309</v>
+        <v>0.1400267919024751</v>
       </c>
       <c r="C68">
-        <v>-0.03891301811718462</v>
+        <v>0.254015766682456</v>
       </c>
       <c r="D68">
-        <v>0.2226475170235832</v>
+        <v>0.002017633257684428</v>
       </c>
       <c r="E68">
-        <v>0.018560517269872</v>
+        <v>-0.01691492027968088</v>
       </c>
       <c r="F68">
-        <v>0.002912824853348283</v>
+        <v>0.01910145204507278</v>
       </c>
       <c r="G68">
-        <v>0.01342996318133531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01930589674937495</v>
+      </c>
+      <c r="H68">
+        <v>-0.009962856915060748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05592983997047541</v>
+        <v>0.07117992436541172</v>
       </c>
       <c r="C69">
-        <v>-0.001514779756476142</v>
+        <v>-0.05872663452728872</v>
       </c>
       <c r="D69">
-        <v>-0.03430827398959132</v>
+        <v>0.01065977907154455</v>
       </c>
       <c r="E69">
-        <v>-0.02619594642908161</v>
+        <v>0.0344796659183211</v>
       </c>
       <c r="F69">
-        <v>0.01519165047395083</v>
+        <v>0.03280763762041904</v>
       </c>
       <c r="G69">
-        <v>-0.01931593365378083</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01083300174043935</v>
+      </c>
+      <c r="H69">
+        <v>0.0191890655591869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07220494399402015</v>
+        <v>0.1360269023656962</v>
       </c>
       <c r="C71">
-        <v>-0.02522629571087543</v>
+        <v>0.2154321916498451</v>
       </c>
       <c r="D71">
-        <v>0.2267481626774531</v>
+        <v>0.01063648642951534</v>
       </c>
       <c r="E71">
-        <v>0.03217031351656602</v>
+        <v>-0.0222432934521892</v>
       </c>
       <c r="F71">
-        <v>-0.03196928434233796</v>
+        <v>0.02339386328213992</v>
       </c>
       <c r="G71">
-        <v>-0.02773092598154946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03163111481265007</v>
+      </c>
+      <c r="H71">
+        <v>-0.02470623669741194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1360216819477975</v>
+        <v>0.07961208150099777</v>
       </c>
       <c r="C72">
-        <v>-0.01326381186008984</v>
+        <v>-0.08576888505735281</v>
       </c>
       <c r="D72">
-        <v>-0.1303771338095664</v>
+        <v>0.010451267007122</v>
       </c>
       <c r="E72">
-        <v>0.1138078914052695</v>
+        <v>0.01836736503597283</v>
       </c>
       <c r="F72">
-        <v>0.1459981996556659</v>
+        <v>-0.04069337640795373</v>
       </c>
       <c r="G72">
-        <v>0.1636235541362487</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.004203131306170246</v>
+      </c>
+      <c r="H72">
+        <v>0.01462542352894578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.254385583893477</v>
+        <v>0.3888628352311411</v>
       </c>
       <c r="C73">
-        <v>-0.113800705200816</v>
+        <v>-0.1238467428477997</v>
       </c>
       <c r="D73">
-        <v>-0.01111300076836652</v>
+        <v>-0.007529757008487886</v>
       </c>
       <c r="E73">
-        <v>0.2366382393940878</v>
+        <v>-0.06764462707088877</v>
       </c>
       <c r="F73">
-        <v>0.06937010100315723</v>
+        <v>-0.5315815224461765</v>
       </c>
       <c r="G73">
-        <v>0.3983047239222241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.09433995202391911</v>
+      </c>
+      <c r="H73">
+        <v>-0.07227717933910338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1336174220274681</v>
+        <v>0.1097463028454943</v>
       </c>
       <c r="C74">
-        <v>-0.004980092322357089</v>
+        <v>-0.1212916034390576</v>
       </c>
       <c r="D74">
-        <v>-0.07617614189087243</v>
+        <v>0.01103150726796778</v>
       </c>
       <c r="E74">
-        <v>-0.08045507668619735</v>
+        <v>0.04179774655564555</v>
       </c>
       <c r="F74">
-        <v>-0.002340757617178542</v>
+        <v>0.07435508222459747</v>
       </c>
       <c r="G74">
-        <v>-0.009857286164813411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.008604868237527029</v>
+      </c>
+      <c r="H74">
+        <v>0.001632440020403336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2708552899557217</v>
+        <v>0.2485039976934177</v>
       </c>
       <c r="C75">
-        <v>-0.0206058638626939</v>
+        <v>-0.1599355652072737</v>
       </c>
       <c r="D75">
-        <v>-0.1102846178740037</v>
+        <v>0.03243656382063644</v>
       </c>
       <c r="E75">
-        <v>-0.1528344492573152</v>
+        <v>0.06308561776703375</v>
       </c>
       <c r="F75">
-        <v>0.04464305804868487</v>
+        <v>0.2146237205202904</v>
       </c>
       <c r="G75">
-        <v>-0.02586126123221095</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02734392986059158</v>
+      </c>
+      <c r="H75">
+        <v>0.0192842452939671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2600658036225792</v>
+        <v>0.1486500680555311</v>
       </c>
       <c r="C76">
-        <v>0.001866693628779421</v>
+        <v>-0.1358833453511159</v>
       </c>
       <c r="D76">
-        <v>-0.1158919939369233</v>
+        <v>0.02477797675245491</v>
       </c>
       <c r="E76">
-        <v>-0.2217567200928267</v>
+        <v>0.07187174295084717</v>
       </c>
       <c r="F76">
-        <v>0.01095719747981141</v>
+        <v>0.1483298577228632</v>
       </c>
       <c r="G76">
-        <v>-0.04704478841594982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0005488289328911236</v>
+      </c>
+      <c r="H76">
+        <v>0.0104738105453376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0615611486496143</v>
+        <v>0.05242533516487604</v>
       </c>
       <c r="C77">
-        <v>-0.004847436401385679</v>
+        <v>-0.05930309730735893</v>
       </c>
       <c r="D77">
-        <v>-0.04126915732218841</v>
+        <v>-0.01083450204474899</v>
       </c>
       <c r="E77">
-        <v>0.06074819396994933</v>
+        <v>-0.02789425458005207</v>
       </c>
       <c r="F77">
-        <v>-0.01202274125550425</v>
+        <v>-0.004977440372611997</v>
       </c>
       <c r="G77">
-        <v>-0.1157162937690912</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03144487942306853</v>
+      </c>
+      <c r="H77">
+        <v>-8.515092027721006e-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03380203603470432</v>
+        <v>0.04071174890892736</v>
       </c>
       <c r="C78">
-        <v>0.00700068325424293</v>
+        <v>-0.05405967742027577</v>
       </c>
       <c r="D78">
-        <v>-0.05099165857857004</v>
+        <v>-0.004368564178880222</v>
       </c>
       <c r="E78">
-        <v>0.0615256486006168</v>
+        <v>-0.01521420398674432</v>
       </c>
       <c r="F78">
-        <v>0.06124936335096379</v>
+        <v>-0.04680074730080992</v>
       </c>
       <c r="G78">
-        <v>0.02206703332778049</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.02506981956670536</v>
+      </c>
+      <c r="H78">
+        <v>0.01296539954709539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,102 +2754,117 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2190646072742493</v>
+        <v>0.06456819770652189</v>
       </c>
       <c r="C80">
-        <v>0.9429344855627273</v>
+        <v>-0.08373342204145094</v>
       </c>
       <c r="D80">
-        <v>0.1131370105228898</v>
+        <v>-0.01228518625762037</v>
       </c>
       <c r="E80">
-        <v>0.1290578878534153</v>
+        <v>0.06975578628389774</v>
       </c>
       <c r="F80">
-        <v>-0.07455429081477556</v>
+        <v>0.02575570122789402</v>
       </c>
       <c r="G80">
-        <v>-0.001899376796102912</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.9116129108385306</v>
+      </c>
+      <c r="H80">
+        <v>-0.2805810609090146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2097843913385166</v>
+        <v>0.1485627455191498</v>
       </c>
       <c r="C81">
-        <v>-0.005014839371648008</v>
+        <v>-0.1029822676712387</v>
       </c>
       <c r="D81">
-        <v>-0.08104063038714802</v>
+        <v>0.01859504537278869</v>
       </c>
       <c r="E81">
-        <v>-0.1191350666654533</v>
+        <v>0.04328601665585492</v>
       </c>
       <c r="F81">
-        <v>0.04768940076343339</v>
+        <v>0.1395764489897407</v>
       </c>
       <c r="G81">
-        <v>-0.07344199077182685</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.00723832067069161</v>
+      </c>
+      <c r="H81">
+        <v>0.01211617057195169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03485647441703815</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02562073432174527</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002692535045346956</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02224397654898978</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>-0.0002476922040516558</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.001310259335171071</v>
+      </c>
+      <c r="H82">
+        <v>0.0153669254190155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0353251377727118</v>
+        <v>0.02678571415934936</v>
       </c>
       <c r="C83">
-        <v>-0.006939415923962899</v>
+        <v>-0.01781980181890902</v>
       </c>
       <c r="D83">
-        <v>-0.006000779093863698</v>
+        <v>-0.004371482178872141</v>
       </c>
       <c r="E83">
-        <v>0.03783582525543498</v>
+        <v>-0.02045418650034723</v>
       </c>
       <c r="F83">
-        <v>0.02219008341618541</v>
+        <v>-0.02548061955621972</v>
       </c>
       <c r="G83">
-        <v>-0.02011272081021485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.02673292304829462</v>
+      </c>
+      <c r="H83">
+        <v>0.009438711507750981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2543464060268831</v>
+        <v>0.2419726520353301</v>
       </c>
       <c r="C85">
-        <v>-0.02817454945137939</v>
+        <v>-0.1659321761787153</v>
       </c>
       <c r="D85">
-        <v>-0.1259086700843419</v>
+        <v>0.02270675925461706</v>
       </c>
       <c r="E85">
-        <v>-0.1856227251454206</v>
+        <v>0.103893592010958</v>
       </c>
       <c r="F85">
-        <v>0.03345746958551921</v>
+        <v>0.2090710060639001</v>
       </c>
       <c r="G85">
-        <v>-0.05997023472301776</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.06591933594153712</v>
+      </c>
+      <c r="H85">
+        <v>0.01875698501249133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008903453936551129</v>
+        <v>0.005963314642947492</v>
       </c>
       <c r="C86">
-        <v>0.008578328920093739</v>
+        <v>-0.02612362298796625</v>
       </c>
       <c r="D86">
-        <v>-0.04025312357852127</v>
+        <v>-0.009427586994809826</v>
       </c>
       <c r="E86">
-        <v>0.05480986414185128</v>
+        <v>-0.01228858012799411</v>
       </c>
       <c r="F86">
-        <v>0.04219273975073361</v>
+        <v>-0.02594801062938096</v>
       </c>
       <c r="G86">
-        <v>-0.0337997096707724</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04740716195999332</v>
+      </c>
+      <c r="H86">
+        <v>-0.02169050088410799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02706287535094132</v>
+        <v>0.01531990598177406</v>
       </c>
       <c r="C87">
-        <v>0.005265954602098517</v>
+        <v>-0.02817623808465253</v>
       </c>
       <c r="D87">
-        <v>-0.02865806858070796</v>
+        <v>-0.01071386417674519</v>
       </c>
       <c r="E87">
-        <v>0.1018281903341457</v>
+        <v>-0.07317943323523222</v>
       </c>
       <c r="F87">
-        <v>0.05297491146021501</v>
+        <v>-0.06496187860452461</v>
       </c>
       <c r="G87">
-        <v>0.01720826438629169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.03876295547624862</v>
+      </c>
+      <c r="H87">
+        <v>-0.005517503770675197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04713656052949335</v>
+        <v>0.08070336264562844</v>
       </c>
       <c r="C88">
-        <v>-0.01004090051728789</v>
+        <v>-0.04683968420447085</v>
       </c>
       <c r="D88">
-        <v>0.0001271613831110351</v>
+        <v>-0.01904466796787583</v>
       </c>
       <c r="E88">
-        <v>0.0006695230044648932</v>
+        <v>0.01896410512384671</v>
       </c>
       <c r="F88">
-        <v>0.01425247764633696</v>
+        <v>-0.01238593352007405</v>
       </c>
       <c r="G88">
-        <v>0.01940514588748867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01948788977841007</v>
+      </c>
+      <c r="H88">
+        <v>0.02598217888192521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1430439964103251</v>
+        <v>0.2395076928933339</v>
       </c>
       <c r="C89">
-        <v>-0.07951712700820222</v>
+        <v>0.3728091425195503</v>
       </c>
       <c r="D89">
-        <v>0.3806727816968722</v>
+        <v>0.01656694000310805</v>
       </c>
       <c r="E89">
-        <v>0.003935927921062017</v>
+        <v>0.004623543096862808</v>
       </c>
       <c r="F89">
-        <v>0.06988556923350435</v>
+        <v>0.02384420159991134</v>
       </c>
       <c r="G89">
-        <v>-0.01451865843747744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02293024692554778</v>
+      </c>
+      <c r="H89">
+        <v>0.01003449551582775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08164716985568905</v>
+        <v>0.1980478862042022</v>
       </c>
       <c r="C90">
-        <v>-0.07168097529108258</v>
+        <v>0.3297274158948259</v>
       </c>
       <c r="D90">
-        <v>0.3425905514138346</v>
+        <v>0.01684855003761366</v>
       </c>
       <c r="E90">
-        <v>-0.03551627912955285</v>
+        <v>-0.005334547033081391</v>
       </c>
       <c r="F90">
-        <v>0.003529828350437137</v>
+        <v>0.04310500658501558</v>
       </c>
       <c r="G90">
-        <v>-0.0574979669890025</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.003318560612546101</v>
+      </c>
+      <c r="H90">
+        <v>-4.533058262222062e-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2862962270938623</v>
+        <v>0.2091126589729273</v>
       </c>
       <c r="C91">
-        <v>-0.02482596927942803</v>
+        <v>-0.1405390919673036</v>
       </c>
       <c r="D91">
-        <v>-0.1411819666110738</v>
+        <v>0.02795216998163549</v>
       </c>
       <c r="E91">
-        <v>-0.2370938096654673</v>
+        <v>0.08418649680568061</v>
       </c>
       <c r="F91">
-        <v>-0.04789294475832603</v>
+        <v>0.1961998335400296</v>
       </c>
       <c r="G91">
-        <v>-0.03164092234169507</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02206983487619633</v>
+      </c>
+      <c r="H91">
+        <v>0.01054061560916973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2314651701265541</v>
+        <v>0.2280398589812512</v>
       </c>
       <c r="C92">
-        <v>-0.08391697192157234</v>
+        <v>0.251254744640224</v>
       </c>
       <c r="D92">
-        <v>0.3580637978031945</v>
+        <v>0.05813548665447928</v>
       </c>
       <c r="E92">
-        <v>-0.1219898387835404</v>
+        <v>-0.007986507595437826</v>
       </c>
       <c r="F92">
-        <v>0.01598175874023654</v>
+        <v>0.1435961269749422</v>
       </c>
       <c r="G92">
-        <v>-0.2752787841110052</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04567634033069741</v>
+      </c>
+      <c r="H92">
+        <v>0.005322391004576646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1344707463076185</v>
+        <v>0.227215014497221</v>
       </c>
       <c r="C93">
-        <v>-0.09867549200656565</v>
+        <v>0.3244900405390369</v>
       </c>
       <c r="D93">
-        <v>0.3976052347015757</v>
+        <v>0.02370563327290515</v>
       </c>
       <c r="E93">
-        <v>-0.001765139627906665</v>
+        <v>-0.01889770526585704</v>
       </c>
       <c r="F93">
-        <v>-0.06281838564247327</v>
+        <v>0.01688282005086695</v>
       </c>
       <c r="G93">
-        <v>0.01992890818897579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.007215823793194871</v>
+      </c>
+      <c r="H93">
+        <v>-0.04223767371184444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3251753175208973</v>
+        <v>0.2715400965091342</v>
       </c>
       <c r="C94">
-        <v>-0.05875885886002039</v>
+        <v>-0.1647298079718195</v>
       </c>
       <c r="D94">
-        <v>-0.1060530777180965</v>
+        <v>0.01632466289859437</v>
       </c>
       <c r="E94">
-        <v>-0.224131933334367</v>
+        <v>0.1025618557793774</v>
       </c>
       <c r="F94">
-        <v>0.09459056171681804</v>
+        <v>0.3542699150127131</v>
       </c>
       <c r="G94">
-        <v>-0.1454329404784675</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1087939351239012</v>
+      </c>
+      <c r="H94">
+        <v>0.2377754796205779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06864748982123803</v>
+        <v>0.07024471581731985</v>
       </c>
       <c r="C95">
-        <v>-0.07596844919003316</v>
+        <v>-0.09325451436186467</v>
       </c>
       <c r="D95">
-        <v>-0.04007715429493339</v>
+        <v>0.007342887392332351</v>
       </c>
       <c r="E95">
-        <v>0.01178652951508616</v>
+        <v>-0.07239567233559227</v>
       </c>
       <c r="F95">
-        <v>0.09514563694861249</v>
+        <v>-0.1495793719307575</v>
       </c>
       <c r="G95">
-        <v>0.06610058991122963</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05847823401696611</v>
+      </c>
+      <c r="H95">
+        <v>-0.004797873739194519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2060693557190631</v>
+        <v>0.2126190808483955</v>
       </c>
       <c r="C98">
-        <v>-0.0728588730762014</v>
+        <v>-0.05438807050767207</v>
       </c>
       <c r="D98">
-        <v>0.02154620960799533</v>
+        <v>0.02168933912351848</v>
       </c>
       <c r="E98">
-        <v>0.2412361593938445</v>
+        <v>-0.06681891178338376</v>
       </c>
       <c r="F98">
-        <v>0.1055899939753638</v>
+        <v>-0.2575804024084935</v>
       </c>
       <c r="G98">
-        <v>0.3514720413573166</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.03429798697670645</v>
+      </c>
+      <c r="H98">
+        <v>-0.05650000193134879</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002908723400337905</v>
+        <v>0.006448653039209682</v>
       </c>
       <c r="C101">
-        <v>0.002969417682373419</v>
+        <v>-0.0237319232348166</v>
       </c>
       <c r="D101">
-        <v>-0.03379752283943949</v>
+        <v>-0.007942928761959867</v>
       </c>
       <c r="E101">
-        <v>0.1348321482931395</v>
+        <v>-0.02908897150595243</v>
       </c>
       <c r="F101">
-        <v>0.0890096055851932</v>
+        <v>0.008488726820312936</v>
       </c>
       <c r="G101">
-        <v>-0.1893379425931531</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03448635074688446</v>
+      </c>
+      <c r="H101">
+        <v>0.04624390527159875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1412196250863678</v>
+        <v>0.1190950280399162</v>
       </c>
       <c r="C102">
-        <v>-0.01003346409016321</v>
+        <v>-0.08318409286955065</v>
       </c>
       <c r="D102">
-        <v>-0.05327203962708964</v>
+        <v>0.001374825434170109</v>
       </c>
       <c r="E102">
-        <v>-0.1025688462836461</v>
+        <v>0.04575997335572277</v>
       </c>
       <c r="F102">
-        <v>-0.02745675286583926</v>
+        <v>0.06169367422349937</v>
       </c>
       <c r="G102">
-        <v>-0.03870526385591766</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01922621917969018</v>
+      </c>
+      <c r="H102">
+        <v>-0.007744386669140627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03660969069318405</v>
+        <v>0.006682344905542677</v>
       </c>
       <c r="C103">
-        <v>0.01388490473692074</v>
+        <v>-0.006754874574298697</v>
       </c>
       <c r="D103">
-        <v>-0.01956504503426337</v>
+        <v>-0.0003781770907848066</v>
       </c>
       <c r="E103">
-        <v>-0.01050693090797415</v>
+        <v>0.001103929616198602</v>
       </c>
       <c r="F103">
-        <v>-0.003669237321405045</v>
+        <v>0.011569094071237</v>
       </c>
       <c r="G103">
-        <v>-0.0008254123895479636</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01346583421980783</v>
+      </c>
+      <c r="H103">
+        <v>-0.01101749145873103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.05590514268691425</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04972846657892058</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.984753781282539</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04313175598387231</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03132311912618788</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.00874814846738</v>
+      </c>
+      <c r="H104">
+        <v>0.1011873740746614</v>
       </c>
     </row>
   </sheetData>
